--- a/SMO/TemplateExcel/TONG_HOP_KE_HOACH_CHI_PHI.xlsx
+++ b/SMO/TemplateExcel/TONG_HOP_KE_HOACH_CHI_PHI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD54F88-C420-43C4-A842-F4462B131A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B8FCF6-9C69-4FF3-9D8C-C18B78EE1DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1EFE3D26-A314-4A1A-939F-D896B04E0D09}"/>
   </bookViews>
